--- a/DesignerConfigs/Datas/test/table_one.xlsx
+++ b/DesignerConfigs/Datas/test/table_one.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\luban\config\Datas\test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\luban_examples\DesignerConfigs\Datas\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD0E9401-383E-46B9-B028-03F027E4D5A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{930EA113-7D4E-4C01-83B0-39BA1AC25F38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29190" yWindow="390" windowWidth="27645" windowHeight="14835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tb_role_csv" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>##</t>
-  </si>
-  <si>
-    <t>row:true</t>
   </si>
   <si>
     <t>是否导出</t>
@@ -80,6 +77,7 @@
     <font>
       <sz val="9"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -387,7 +385,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -406,61 +404,58 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>5</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
         <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
         <v>8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D5">
         <v>5</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">

--- a/DesignerConfigs/Datas/test/table_one.xlsx
+++ b/DesignerConfigs/Datas/test/table_one.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\luban_examples\DesignerConfigs\Datas\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{930EA113-7D4E-4C01-83B0-39BA1AC25F38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2767C82F-0291-49E9-A6C0-5979641A181E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29190" yWindow="390" windowWidth="27645" windowHeight="14835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31920" yWindow="3120" windowWidth="25335" windowHeight="12915" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tb_role_csv" sheetId="1" r:id="rId1"/>
@@ -20,13 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <si>
-    <t>##</t>
-  </si>
-  <si>
-    <t>是否导出</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>name</t>
   </si>
@@ -43,12 +37,6 @@
     <t>x2:byte</t>
   </si>
   <si>
-    <t>注释行</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  随便填</t>
-  </si>
-  <si>
     <t>aabbcc</t>
   </si>
   <si>
@@ -59,6 +47,23 @@
   </si>
   <si>
     <t>key_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>#</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -66,7 +71,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -76,6 +81,14 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -102,11 +115,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -382,10 +396,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -401,74 +415,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="C1" s="1"/>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1"/>
+      <c r="A2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
       <c r="D2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
       <c r="C3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
         <v>6</v>
       </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5">
-        <v>5</v>
-      </c>
-      <c r="E5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="G12:J12"/>
-    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="G10:J10"/>
+    <mergeCell ref="B1:C1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
